--- a/quality_controlled_data_table_copy_worked.xlsx
+++ b/quality_controlled_data_table_copy_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/derrick_muheki_vub_be/Documents/PhD_Derrick_Muheki/21_Research/21_6_Analysis/21_6_0_Preprocessing_data/Data_Rescue_Congo_DRC-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{45D4A184-91F8-4210-B7EE-60BD216E8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F38CA771-D923-45A9-9AC5-6B03CF9A8F7F}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{45D4A184-91F8-4210-B7EE-60BD216E8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72522402-9401-4520-983A-DCECAAFF62AB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13764" yWindow="792" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="3660" windowWidth="32580" windowHeight="17715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -461,15 +461,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,13 +473,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1728,16 +1728,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>433755</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>82062</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>594947</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>96717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>70339</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>84994</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1763,6 +1763,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2053,108 +2057,108 @@
   <dimension ref="A1:AB48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="AE59" sqref="AE59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="4"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="13" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="13" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="10" t="s">
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="13" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="13" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="13" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="12"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="16"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2167,14 +2171,14 @@
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2222,7 +2226,7 @@
       </c>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
         <v>57</v>
@@ -2296,11 +2300,11 @@
       <c r="AA4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="11">
         <v>25324</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2378,11 +2382,11 @@
       <c r="AA5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="11">
         <v>25325</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -2458,11 +2462,11 @@
       <c r="AA6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="19">
+      <c r="AB6" s="11">
         <v>25326</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -2540,11 +2544,11 @@
       <c r="AA7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="11">
         <v>25327</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2620,11 +2624,11 @@
       <c r="AA8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AB8" s="11">
         <v>25328</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -2703,7 +2707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -2782,7 +2786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -2862,11 +2866,11 @@
       <c r="AA11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AB11" s="10">
         <v>25328</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>22</v>
@@ -2946,11 +2950,11 @@
       <c r="AA12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AB12" s="10">
         <v>25329</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -3028,11 +3032,11 @@
       <c r="AA13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AB13" s="10">
         <v>25330</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -3112,11 +3116,11 @@
       <c r="AA14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AB14" s="10">
         <v>25331</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>25</v>
@@ -3196,11 +3200,11 @@
       <c r="AA15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AB15" s="10">
         <v>25332</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>19</v>
@@ -3281,7 +3285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>20</v>
@@ -3356,7 +3360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>26</v>
@@ -3436,11 +3440,11 @@
       <c r="AA18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AB18" s="10">
         <v>25334</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>27</v>
@@ -3518,11 +3522,11 @@
       <c r="AA19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AB19" s="10">
         <v>25335</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
@@ -3600,11 +3604,11 @@
       <c r="AA20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AB20" s="10">
         <v>25336</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
@@ -3682,11 +3686,11 @@
       <c r="AA21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AB21" s="10">
         <v>25337</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>30</v>
@@ -3760,11 +3764,11 @@
       <c r="AA22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AB22" s="10">
         <v>25338</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -3837,7 +3841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>20</v>
@@ -3916,7 +3920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
@@ -3980,11 +3984,11 @@
       <c r="AA25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB25" s="18">
+      <c r="AB25" s="10">
         <v>25339</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>32</v>
@@ -4060,11 +4064,11 @@
       <c r="AA26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB26" s="18">
+      <c r="AB26" s="10">
         <v>25340</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>33</v>
@@ -4142,11 +4146,11 @@
       <c r="AA27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB27" s="18">
+      <c r="AB27" s="10">
         <v>25341</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>34</v>
@@ -4226,11 +4230,11 @@
       <c r="AA28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AB28" s="18">
+      <c r="AB28" s="10">
         <v>25342</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>35</v>
@@ -4308,11 +4312,11 @@
       <c r="AA29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB29" s="18">
+      <c r="AB29" s="10">
         <v>25343</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>19</v>
@@ -4393,7 +4397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -4466,7 +4470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>37</v>
@@ -4544,11 +4548,11 @@
       <c r="AA32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB32" s="18">
+      <c r="AB32" s="10">
         <v>25344</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>38</v>
@@ -4626,11 +4630,11 @@
       <c r="AA33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AB33" s="18">
+      <c r="AB33" s="10">
         <v>25345</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>39</v>
@@ -4708,11 +4712,11 @@
       <c r="AA34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AB34" s="18">
+      <c r="AB34" s="10">
         <v>25346</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>40</v>
@@ -4790,11 +4794,11 @@
       <c r="AA35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AB35" s="18">
+      <c r="AB35" s="10">
         <v>25347</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>41</v>
@@ -4872,11 +4876,11 @@
       <c r="AA36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AB36" s="18">
+      <c r="AB36" s="10">
         <v>25348</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>19</v>
@@ -4955,7 +4959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>20</v>
@@ -5034,7 +5038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>42</v>
@@ -5114,11 +5118,11 @@
       <c r="AA39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB39" s="18">
+      <c r="AB39" s="10">
         <v>25349</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>43</v>
@@ -5198,11 +5202,11 @@
       <c r="AA40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AB40" s="18">
+      <c r="AB40" s="10">
         <v>25350</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>44</v>
@@ -5272,11 +5276,11 @@
       <c r="AA41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AB41" s="18">
+      <c r="AB41" s="10">
         <v>25351</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>45</v>
@@ -5354,11 +5358,11 @@
       <c r="AA42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AB42" s="18">
+      <c r="AB42" s="10">
         <v>25352</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>46</v>
@@ -5438,11 +5442,11 @@
       <c r="AA43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB43" s="18">
+      <c r="AB43" s="10">
         <v>25353</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>47</v>
@@ -5508,11 +5512,11 @@
       <c r="AA44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB44" s="18">
+      <c r="AB44" s="10">
         <v>25354</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>19</v>
@@ -5591,7 +5595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>20</v>
@@ -5650,7 +5654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>19</v>
@@ -5727,7 +5731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>20</v>
@@ -5804,6 +5808,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="K1:K3"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AA2"/>
@@ -5814,11 +5823,6 @@
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="L1:P1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="K1:K3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
